--- a/Suppl_Data_Coding/K562LG50ngXR28_comb-intBlocks_graph.xlsx
+++ b/Suppl_Data_Coding/K562LG50ngXR28_comb-intBlocks_graph.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jingru\references\Output\coverage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingruyu/Documents/Studies/BF_deconv/Draft/Suppl_Data_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0630ED-5035-4BA1-A3B3-735420091120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7743E3E4-407B-514D-B0D5-D81D6FDDAA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19170" windowHeight="9630" activeTab="3" xr2:uid="{A061518A-EE8E-4B85-A4F0-7BEA6C992838}"/>
+    <workbookView xWindow="-25280" yWindow="5300" windowWidth="19180" windowHeight="9640" xr2:uid="{A061518A-EE8E-4B85-A4F0-7BEA6C992838}"/>
   </bookViews>
   <sheets>
-    <sheet name="allCpGs_cov" sheetId="1" r:id="rId1"/>
-    <sheet name="classifier_cov" sheetId="2" r:id="rId2"/>
-    <sheet name="allCpGs_cov_update" sheetId="3" r:id="rId3"/>
-    <sheet name="TCGA_inter_cov" sheetId="4" r:id="rId4"/>
+    <sheet name="classifier_cov" sheetId="2" r:id="rId1"/>
+    <sheet name="allCpGs_cov_update" sheetId="3" r:id="rId2"/>
+    <sheet name="TCGA_inter_cov" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>Original</t>
   </si>
@@ -967,331 +966,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4F0006-1FA5-435E-8D8E-49CDA541F4B1}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>13.255981999999999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>B2/29.401795*100</f>
-        <v>45.085621473110734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8.1304309999999997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">B3/29.401795*100</f>
-        <v>27.6528388827961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6.0538109999999996</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>20.589936770867219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>4.4397200000000003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>15.100166503439672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3.2136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>10.929944923430696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1.669489</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>B7/29.401795*100</f>
-        <v>5.6781873351609997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>6.140188000000002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>20.883718153942649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>6.7344360000000005</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <f>B9/29.401795*100</f>
-        <v>22.904846455803128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>7.4636720000000008</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>25.385089583816228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>8.2902260000000005</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>28.196326108661058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>8.9299379999999999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>30.372084425457697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>9.5642519999999998</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>32.529483318960629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>19.396170000000001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <f>B14/29.401795*100</f>
-        <v>65.969339627053387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>14.864867</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>50.557685338599221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>13.517483</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>45.975026354683443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>12.729946</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>43.296492612100721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>12.143537999999999</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>41.302029348888389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>11.233741</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <f>B19/29.401795*100</f>
-        <v>38.207670654121628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <f>6.734436/B3</f>
-        <v>0.82830000033208573</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FDE36-9BB1-4A4D-A621-42FED7BE4793}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1326,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1452,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321B9860-E27F-435E-AF92-4A337ED7B00A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1516,12 +1203,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>16.121862</v>
       </c>
@@ -1550,7 +1237,7 @@
         <v>54.83291751404974</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13.413425999999999</v>
       </c>
@@ -1565,7 +1252,7 @@
         <v>45.621112588534132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12.0398</v>
       </c>
@@ -1580,7 +1267,7 @@
         <v>40.949200550510604</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11.202551</v>
       </c>
@@ -1595,7 +1282,7 @@
         <v>38.101588695520121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10.583715</v>
       </c>
@@ -1610,7 +1297,7 @@
         <v>35.996832846429953</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9.6714669999999998</v>
       </c>
@@ -1625,7 +1312,7 @@
         <v>32.894137925932753</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12.599938</v>
       </c>
@@ -1651,7 +1338,7 @@
         <v>16.121862</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7.8842210000000001</v>
       </c>
@@ -1677,7 +1364,7 @@
         <v>13.413425999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.6929569999999998</v>
       </c>
@@ -1703,7 +1390,7 @@
         <v>12.0398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4.0730639999999996</v>
       </c>
@@ -1729,7 +1416,7 @@
         <v>11.202551</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.8662830000000001</v>
       </c>
@@ -1755,7 +1442,7 @@
         <v>10.583715</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.3881650000000001</v>
       </c>
@@ -1781,7 +1468,7 @@
         <v>9.6714669999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.5219240000000003</v>
       </c>
@@ -1796,7 +1483,7 @@
         <v>11.978601986715438</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.5292049999999993</v>
       </c>
@@ -1811,7 +1498,7 @@
         <v>18.805671558488179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6.3468429999999998</v>
       </c>
@@ -1826,7 +1513,7 @@
         <v>21.586583404176512</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7.1294870000000001</v>
       </c>
@@ -1841,7 +1528,7 @@
         <v>24.248475305674365</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7.7174319999999996</v>
       </c>
@@ -1856,7 +1543,7 @@
         <v>26.248166140876773</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8.2833019999999991</v>
       </c>
@@ -1876,17 +1563,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5FAE44-6747-42F6-A4C6-A527173DFFB7}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +1587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12.835000000000001</v>
       </c>
@@ -1908,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>A2/60*100</f>
+        <f t="shared" ref="C2:C7" si="0">A2/60*100</f>
         <v>21.391666666666666</v>
       </c>
       <c r="D2">
@@ -1926,7 +1613,7 @@
         <v>1.1899493572263342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>28.108000000000001</v>
       </c>
@@ -1934,14 +1621,14 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f>A3/60*100</f>
+        <f t="shared" si="0"/>
         <v>46.846666666666671</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18.13</v>
       </c>
@@ -1949,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>A4/60*100</f>
+        <f t="shared" si="0"/>
         <v>30.216666666666665</v>
       </c>
       <c r="D4">
@@ -1967,7 +1654,7 @@
         <v>0.65830115830115843</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30.065000000000001</v>
       </c>
@@ -1975,14 +1662,14 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <f>A5/60*100</f>
+        <f t="shared" si="0"/>
         <v>50.108333333333334</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24.893999999999998</v>
       </c>
@@ -1990,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>A6/60*100</f>
+        <f t="shared" si="0"/>
         <v>41.49</v>
       </c>
       <c r="D6">
@@ -2008,7 +1695,7 @@
         <v>0.32843255402908339</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>33.07</v>
       </c>
@@ -2016,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f>A7/60*100</f>
+        <f t="shared" si="0"/>
         <v>55.116666666666667</v>
       </c>
       <c r="D7">
